--- a/Archivos Excel/GASTO_COMUN.xlsx
+++ b/Archivos Excel/GASTO_COMUN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manee\OneDrive\Escritorio\P_F\PROYECTOS\ANALSIS_GASTO_COMUN\GASTO-COMUN\Archivos Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manee\OneDrive\Escritorio\P_F\PROYECTOS\ANALISIS_GASTO_COMUN\GASTO-COMUN\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF661AD-E940-4B3D-8C29-3004AD20AC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D681C75-C4BD-43F3-924E-249A022C5D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{C3F6F70B-5C77-434D-9272-865DD6FEA5E2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C3F6F70B-5C77-434D-9272-865DD6FEA5E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$CLP]\ #,##0;[Red][$CLP]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -279,11 +280,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26296243-FC99-4AC0-80FE-7E03F8CEB679}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,288 +643,288 @@
     <col min="11" max="11" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>2023</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>57.603000000000002</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>2.88</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>2.5579999999999998</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>6.6589999999999998</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>24.202999999999999</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>6.1719999999999997</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>93.903000000000006</v>
       </c>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>2023</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>50.320999999999998</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>2.516</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>2.5579999999999998</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>5.3819999999999997</v>
       </c>
       <c r="K3" s="3">
         <v>20.22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>6.4009999999999998</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>80.997</v>
       </c>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>2023</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>50.777999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>2.5390000000000001</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>2.5579999999999998</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>5.9290000000000003</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>18.815000000000001</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>6.1859999999999999</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>80.619</v>
       </c>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>2023</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>58.627000000000002</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>2.931</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>2.5579999999999998</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>6.7270000000000003</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>27.594999999999999</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>6.8639999999999999</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>98.438000000000002</v>
       </c>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>2023</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>51.073999999999998</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>2.5539999999999998</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>7.0949999999999998</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>23.806999999999999</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="N6" s="3">
@@ -931,241 +936,241 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>2023</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>52.168999999999997</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>2.6080000000000001</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>2.5579999999999998</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>8.3870000000000005</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>32.293999999999997</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="N7" s="3">
         <v>6.78</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>98.016000000000005</v>
       </c>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>2023</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>58.613999999999997</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>2.931</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>2.5579999999999998</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>9.0559999999999992</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>26.454999999999998</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>7.1020000000000003</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>99.614000000000004</v>
       </c>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>2024</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>54.738</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>2.7370000000000001</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>2.5579999999999998</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>6.6429999999999998</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>20.841000000000001</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>6.8710000000000004</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>87.516999999999996</v>
       </c>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>2024</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>48.807000000000002</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>2.44</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>2.5579999999999998</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>7.4530000000000003</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>7.5780000000000003</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>61.258000000000003</v>
       </c>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>2024</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>49.859000000000002</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>2.4929999999999999</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>2.5579999999999998</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>6.1230000000000002</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>24.628</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>22.861000000000001</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="4" t="s">
         <v>65</v>
       </c>
       <c r="N11" s="3">
         <v>6.15</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>108.52200000000001</v>
       </c>
       <c r="P11" s="2"/>
